--- a/Deliverable 3/updated source data.xlsx
+++ b/Deliverable 3/updated source data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shiyunqin/Desktop/Homework/graduate/MSCI609/homework/project/MSCI609-Project/Deliverable 3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D53ED329-1C41-FF4B-BB41-FFD6B3137041}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{E4D05C41-91BD-9146-97D0-E39AD2D797E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="1240" windowWidth="38400" windowHeight="21600" firstSheet="2" activeTab="5"/>
+    <workbookView xWindow="28800" yWindow="1240" windowWidth="38400" windowHeight="21600" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Raw" sheetId="1" r:id="rId1"/>
@@ -6499,7 +6499,7 @@
   <dimension ref="A1:S45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="J1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="M33" sqref="M33"/>
     </sheetView>
   </sheetViews>
@@ -9589,11 +9589,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="42.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="12.83203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -10128,7 +10137,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
